--- a/Jogos_do_Dia/2024-03-04_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2024-03-04_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -172,12 +172,12 @@
     <t>Spain Segunda División</t>
   </si>
   <si>
+    <t>France Ligue 2</t>
+  </si>
+  <si>
     <t>Italy Serie A</t>
   </si>
   <si>
-    <t>France Ligue 2</t>
-  </si>
-  <si>
     <t>England Premier League</t>
   </si>
   <si>
@@ -241,12 +241,12 @@
     <t>Rudeš</t>
   </si>
   <si>
+    <t>Antalyaspor</t>
+  </si>
+  <si>
     <t>Alanyaspor</t>
   </si>
   <si>
-    <t>Antalyaspor</t>
-  </si>
-  <si>
     <t>Academico Viseu</t>
   </si>
   <si>
@@ -268,12 +268,12 @@
     <t>Elche CF</t>
   </si>
   <si>
+    <t>Angers SCO</t>
+  </si>
+  <si>
     <t>Inter Milan</t>
   </si>
   <si>
-    <t>Angers SCO</t>
-  </si>
-  <si>
     <t>Sheffield United</t>
   </si>
   <si>
@@ -304,12 +304,12 @@
     <t>Gorica</t>
   </si>
   <si>
+    <t>Gazişehir Gaziantep</t>
+  </si>
+  <si>
     <t>Trabzonspor</t>
   </si>
   <si>
-    <t>Gazişehir Gaziantep</t>
-  </si>
-  <si>
     <t>Santa Clara</t>
   </si>
   <si>
@@ -331,10 +331,10 @@
     <t>AD Alcorcón</t>
   </si>
   <si>
+    <t>Ajaccio</t>
+  </si>
+  <si>
     <t>Genoa</t>
-  </si>
-  <si>
-    <t>Ajaccio</t>
   </si>
   <si>
     <t>Arsenal</t>
@@ -1005,13 +1005,13 @@
         <v>7.5</v>
       </c>
       <c r="J3">
-        <v>1.36</v>
+        <v>1.43</v>
       </c>
       <c r="K3">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="L3">
-        <v>7</v>
+        <v>7.25</v>
       </c>
       <c r="M3">
         <v>1.4</v>
@@ -1032,10 +1032,10 @@
         <v>3.08</v>
       </c>
       <c r="S3">
-        <v>1.91</v>
+        <v>1.97</v>
       </c>
       <c r="T3">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="U3">
         <v>2.2</v>
@@ -1136,13 +1136,13 @@
         <v>3.6</v>
       </c>
       <c r="J4">
-        <v>1.91</v>
+        <v>2.18</v>
       </c>
       <c r="K4">
-        <v>3.6</v>
+        <v>3.35</v>
       </c>
       <c r="L4">
-        <v>3.4</v>
+        <v>3.15</v>
       </c>
       <c r="M4">
         <v>1.36</v>
@@ -1163,10 +1163,10 @@
         <v>3.82</v>
       </c>
       <c r="S4">
-        <v>1.65</v>
+        <v>1.81</v>
       </c>
       <c r="T4">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="U4">
         <v>1.67</v>
@@ -1267,13 +1267,13 @@
         <v>4.5</v>
       </c>
       <c r="J5">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="K5">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="L5">
-        <v>4.2</v>
+        <v>4.6</v>
       </c>
       <c r="M5">
         <v>1.46</v>
@@ -1294,10 +1294,10 @@
         <v>2.95</v>
       </c>
       <c r="S5">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="T5">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="U5">
         <v>1.95</v>
@@ -1398,13 +1398,13 @@
         <v>2.1</v>
       </c>
       <c r="J6">
-        <v>7</v>
+        <v>6.75</v>
       </c>
       <c r="K6">
-        <v>4.33</v>
+        <v>3.7</v>
       </c>
       <c r="L6">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="M6">
         <v>1.5</v>
@@ -1425,10 +1425,10 @@
         <v>2.65</v>
       </c>
       <c r="S6">
-        <v>2.03</v>
+        <v>2.3</v>
       </c>
       <c r="T6">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="U6">
         <v>2.63</v>
@@ -1601,34 +1601,34 @@
         <v>1.91</v>
       </c>
       <c r="AH7">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="AI7">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="AJ7">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AK7">
-        <v>0</v>
+        <v>2.07</v>
       </c>
       <c r="AL7">
-        <v>0</v>
+        <v>2.13</v>
       </c>
       <c r="AM7">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="AN7">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="AO7">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="AP7">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="AQ7">
-        <v>0</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="8" spans="1:43">
@@ -1651,22 +1651,22 @@
         <v>96</v>
       </c>
       <c r="G8">
-        <v>3.4</v>
+        <v>2.4</v>
       </c>
       <c r="H8">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="I8">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="J8">
-        <v>2.7</v>
+        <v>1.85</v>
       </c>
       <c r="K8">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="L8">
-        <v>2.45</v>
+        <v>4.1</v>
       </c>
       <c r="M8">
         <v>1.36</v>
@@ -1675,91 +1675,91 @@
         <v>3</v>
       </c>
       <c r="O8">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="P8">
-        <v>13</v>
+        <v>10.65</v>
       </c>
       <c r="Q8">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="R8">
-        <v>3.82</v>
+        <v>3.61</v>
       </c>
       <c r="S8">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="T8">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="U8">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="V8">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="W8">
-        <v>1.65</v>
+        <v>1.28</v>
       </c>
       <c r="X8">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="Y8">
-        <v>1.45</v>
+        <v>2</v>
       </c>
       <c r="Z8">
-        <v>1.38</v>
+        <v>1.57</v>
       </c>
       <c r="AA8">
-        <v>1.5</v>
+        <v>1.08</v>
       </c>
       <c r="AB8">
         <v>1.44</v>
       </c>
       <c r="AC8">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="AD8">
-        <v>2.64</v>
+        <v>2.65</v>
       </c>
       <c r="AE8">
-        <v>1.88</v>
+        <v>1.51</v>
       </c>
       <c r="AF8">
-        <v>9</v>
+        <v>9.4</v>
       </c>
       <c r="AG8">
-        <v>2.22</v>
+        <v>3.08</v>
       </c>
       <c r="AH8">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AI8">
-        <v>3.04</v>
+        <v>3.48</v>
       </c>
       <c r="AJ8">
-        <v>1.59</v>
+        <v>1.47</v>
       </c>
       <c r="AK8">
-        <v>2.21</v>
+        <v>2.49</v>
       </c>
       <c r="AL8">
-        <v>2.02</v>
+        <v>1.83</v>
       </c>
       <c r="AM8">
-        <v>1.74</v>
+        <v>1.91</v>
       </c>
       <c r="AN8">
-        <v>2.65</v>
+        <v>2.33</v>
       </c>
       <c r="AO8">
-        <v>1.42</v>
+        <v>1.53</v>
       </c>
       <c r="AP8">
-        <v>3.65</v>
+        <v>3.08</v>
       </c>
       <c r="AQ8">
-        <v>1.22</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="9" spans="1:43">
@@ -1782,22 +1782,22 @@
         <v>97</v>
       </c>
       <c r="G9">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="H9">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="I9">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="J9">
-        <v>1.8</v>
+        <v>2.85</v>
       </c>
       <c r="K9">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="L9">
-        <v>3.8</v>
+        <v>2.38</v>
       </c>
       <c r="M9">
         <v>1.36</v>
@@ -1806,91 +1806,91 @@
         <v>3</v>
       </c>
       <c r="O9">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="P9">
-        <v>10.65</v>
+        <v>13</v>
       </c>
       <c r="Q9">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="R9">
-        <v>3.61</v>
+        <v>3.82</v>
       </c>
       <c r="S9">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="T9">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="U9">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="V9">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="W9">
-        <v>1.28</v>
+        <v>1.65</v>
       </c>
       <c r="X9">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="Y9">
-        <v>2</v>
+        <v>1.45</v>
       </c>
       <c r="Z9">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AA9">
-        <v>1.08</v>
+        <v>1.5</v>
       </c>
       <c r="AB9">
         <v>1.44</v>
       </c>
       <c r="AC9">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AD9">
+        <v>2.64</v>
+      </c>
+      <c r="AE9">
+        <v>1.88</v>
+      </c>
+      <c r="AF9">
+        <v>9</v>
+      </c>
+      <c r="AG9">
+        <v>2.22</v>
+      </c>
+      <c r="AH9">
+        <v>1.31</v>
+      </c>
+      <c r="AI9">
+        <v>3.04</v>
+      </c>
+      <c r="AJ9">
+        <v>1.59</v>
+      </c>
+      <c r="AK9">
+        <v>2.21</v>
+      </c>
+      <c r="AL9">
+        <v>2.02</v>
+      </c>
+      <c r="AM9">
+        <v>1.74</v>
+      </c>
+      <c r="AN9">
         <v>2.65</v>
       </c>
-      <c r="AE9">
-        <v>1.51</v>
-      </c>
-      <c r="AF9">
-        <v>9.4</v>
-      </c>
-      <c r="AG9">
-        <v>3.08</v>
-      </c>
-      <c r="AH9">
-        <v>1.24</v>
-      </c>
-      <c r="AI9">
-        <v>3.48</v>
-      </c>
-      <c r="AJ9">
-        <v>1.47</v>
-      </c>
-      <c r="AK9">
-        <v>2.49</v>
-      </c>
-      <c r="AL9">
-        <v>1.83</v>
-      </c>
-      <c r="AM9">
-        <v>1.91</v>
-      </c>
-      <c r="AN9">
-        <v>2.33</v>
-      </c>
       <c r="AO9">
-        <v>1.53</v>
+        <v>1.42</v>
       </c>
       <c r="AP9">
-        <v>3.08</v>
+        <v>3.65</v>
       </c>
       <c r="AQ9">
-        <v>1.3</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="10" spans="1:43">
@@ -1922,13 +1922,13 @@
         <v>3.2</v>
       </c>
       <c r="J10">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="L10">
-        <v>2.37</v>
+        <v>2.35</v>
       </c>
       <c r="M10">
         <v>1.57</v>
@@ -1949,10 +1949,10 @@
         <v>2.5</v>
       </c>
       <c r="S10">
-        <v>2.4</v>
+        <v>2.43</v>
       </c>
       <c r="T10">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="U10">
         <v>2.1</v>
@@ -2053,13 +2053,13 @@
         <v>3.4</v>
       </c>
       <c r="J11">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="K11">
-        <v>3.1</v>
+        <v>3.35</v>
       </c>
       <c r="L11">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="M11">
         <v>1.45</v>
@@ -2080,10 +2080,10 @@
         <v>3.1</v>
       </c>
       <c r="S11">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T11">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="U11">
         <v>1.8</v>
@@ -2184,13 +2184,13 @@
         <v>5.5</v>
       </c>
       <c r="J12">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="K12">
         <v>4.2</v>
       </c>
       <c r="L12">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="M12">
         <v>1.3</v>
@@ -2211,10 +2211,10 @@
         <v>4.7</v>
       </c>
       <c r="S12">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="T12">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="U12">
         <v>1.7</v>
@@ -2315,13 +2315,13 @@
         <v>4.5</v>
       </c>
       <c r="J13">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="K13">
         <v>3.2</v>
       </c>
       <c r="L13">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="M13">
         <v>1.44</v>
@@ -2342,10 +2342,10 @@
         <v>3.1</v>
       </c>
       <c r="S13">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="T13">
-        <v>1.82</v>
+        <v>1.7</v>
       </c>
       <c r="U13">
         <v>1.95</v>
@@ -2649,10 +2649,10 @@
         <v>1.89</v>
       </c>
       <c r="AH15">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="AI15">
-        <v>0</v>
+        <v>4.7</v>
       </c>
       <c r="AJ15">
         <v>1.27</v>
@@ -2708,13 +2708,13 @@
         <v>7</v>
       </c>
       <c r="J16">
-        <v>1.8</v>
+        <v>1.55</v>
       </c>
       <c r="K16">
-        <v>3.25</v>
+        <v>3.55</v>
       </c>
       <c r="L16">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="M16">
         <v>1.53</v>
@@ -2729,16 +2729,16 @@
         <v>6.5</v>
       </c>
       <c r="Q16">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="R16">
-        <v>2.38</v>
+        <v>2.45</v>
       </c>
       <c r="S16">
-        <v>2.36</v>
+        <v>2.35</v>
       </c>
       <c r="T16">
-        <v>1.46</v>
+        <v>1.53</v>
       </c>
       <c r="U16">
         <v>2.5</v>
@@ -2830,46 +2830,46 @@
         <v>105</v>
       </c>
       <c r="G17">
-        <v>1.73</v>
+        <v>3.1</v>
       </c>
       <c r="H17">
-        <v>2.5</v>
+        <v>1.83</v>
       </c>
       <c r="I17">
-        <v>9.5</v>
+        <v>4.75</v>
       </c>
       <c r="J17">
-        <v>1.26</v>
+        <v>2.1</v>
       </c>
       <c r="K17">
-        <v>5.75</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>12</v>
+        <v>3.65</v>
       </c>
       <c r="M17">
-        <v>1.33</v>
+        <v>1.67</v>
       </c>
       <c r="N17">
-        <v>3.25</v>
+        <v>2.1</v>
       </c>
       <c r="O17">
-        <v>1.05</v>
+        <v>1.1</v>
       </c>
       <c r="P17">
-        <v>16.5</v>
+        <v>5.7</v>
       </c>
       <c r="Q17">
-        <v>1.25</v>
+        <v>1.54</v>
       </c>
       <c r="R17">
-        <v>4</v>
+        <v>2.38</v>
       </c>
       <c r="S17">
-        <v>1.82</v>
+        <v>2.65</v>
       </c>
       <c r="T17">
-        <v>1.99</v>
+        <v>1.37</v>
       </c>
       <c r="U17">
         <v>2.38</v>
@@ -2878,67 +2878,67 @@
         <v>1.53</v>
       </c>
       <c r="W17">
-        <v>1.01</v>
+        <v>1.25</v>
       </c>
       <c r="X17">
-        <v>1.11</v>
+        <v>1.33</v>
       </c>
       <c r="Y17">
-        <v>3.75</v>
+        <v>1.68</v>
       </c>
       <c r="Z17">
-        <v>2.62</v>
+        <v>2.46</v>
       </c>
       <c r="AA17">
-        <v>1</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AB17">
-        <v>1.83</v>
+        <v>1.41</v>
       </c>
       <c r="AC17">
-        <v>1.05</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AD17">
-        <v>2.88</v>
+        <v>2.35</v>
       </c>
       <c r="AE17">
-        <v>1.15</v>
+        <v>1.62</v>
       </c>
       <c r="AF17">
-        <v>13.75</v>
+        <v>8.5</v>
       </c>
       <c r="AG17">
-        <v>7</v>
+        <v>2.85</v>
       </c>
       <c r="AH17">
-        <v>1.2</v>
+        <v>1.49</v>
       </c>
       <c r="AI17">
-        <v>3.84</v>
+        <v>2.44</v>
       </c>
       <c r="AJ17">
-        <v>1.41</v>
+        <v>1.89</v>
       </c>
       <c r="AK17">
-        <v>2.73</v>
+        <v>1.85</v>
       </c>
       <c r="AL17">
-        <v>1.75</v>
+        <v>2.49</v>
       </c>
       <c r="AM17">
-        <v>1.97</v>
+        <v>1.47</v>
       </c>
       <c r="AN17">
-        <v>2.2</v>
+        <v>3.42</v>
       </c>
       <c r="AO17">
-        <v>1.6</v>
+        <v>1.25</v>
       </c>
       <c r="AP17">
-        <v>2.79</v>
+        <v>4.95</v>
       </c>
       <c r="AQ17">
-        <v>1.36</v>
+        <v>1.12</v>
       </c>
     </row>
     <row r="18" spans="1:43">
@@ -2961,46 +2961,46 @@
         <v>106</v>
       </c>
       <c r="G18">
-        <v>3.1</v>
+        <v>1.73</v>
       </c>
       <c r="H18">
-        <v>1.83</v>
+        <v>2.5</v>
       </c>
       <c r="I18">
-        <v>4.75</v>
+        <v>9.5</v>
       </c>
       <c r="J18">
-        <v>2</v>
+        <v>1.27</v>
       </c>
       <c r="K18">
-        <v>3.2</v>
+        <v>5.75</v>
       </c>
       <c r="L18">
+        <v>11</v>
+      </c>
+      <c r="M18">
+        <v>1.33</v>
+      </c>
+      <c r="N18">
+        <v>3.25</v>
+      </c>
+      <c r="O18">
+        <v>1.05</v>
+      </c>
+      <c r="P18">
+        <v>16.5</v>
+      </c>
+      <c r="Q18">
+        <v>1.25</v>
+      </c>
+      <c r="R18">
         <v>4</v>
       </c>
-      <c r="M18">
-        <v>1.67</v>
-      </c>
-      <c r="N18">
-        <v>2.1</v>
-      </c>
-      <c r="O18">
-        <v>1.1</v>
-      </c>
-      <c r="P18">
-        <v>5.7</v>
-      </c>
-      <c r="Q18">
-        <v>1.6</v>
-      </c>
-      <c r="R18">
-        <v>2.25</v>
-      </c>
       <c r="S18">
-        <v>2.65</v>
+        <v>1.75</v>
       </c>
       <c r="T18">
-        <v>1.37</v>
+        <v>2.05</v>
       </c>
       <c r="U18">
         <v>2.38</v>
@@ -3009,67 +3009,67 @@
         <v>1.53</v>
       </c>
       <c r="W18">
-        <v>1.25</v>
+        <v>1.01</v>
       </c>
       <c r="X18">
-        <v>1.33</v>
+        <v>1.11</v>
       </c>
       <c r="Y18">
-        <v>1.68</v>
+        <v>3.75</v>
       </c>
       <c r="Z18">
-        <v>2.46</v>
+        <v>2.62</v>
       </c>
       <c r="AA18">
-        <v>0.6899999999999999</v>
+        <v>1</v>
       </c>
       <c r="AB18">
+        <v>1.83</v>
+      </c>
+      <c r="AC18">
+        <v>1.05</v>
+      </c>
+      <c r="AD18">
+        <v>2.88</v>
+      </c>
+      <c r="AE18">
+        <v>1.15</v>
+      </c>
+      <c r="AF18">
+        <v>13.75</v>
+      </c>
+      <c r="AG18">
+        <v>7</v>
+      </c>
+      <c r="AH18">
+        <v>1.2</v>
+      </c>
+      <c r="AI18">
+        <v>3.84</v>
+      </c>
+      <c r="AJ18">
         <v>1.41</v>
       </c>
-      <c r="AC18">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="AD18">
-        <v>2.35</v>
-      </c>
-      <c r="AE18">
-        <v>1.62</v>
-      </c>
-      <c r="AF18">
-        <v>8.5</v>
-      </c>
-      <c r="AG18">
-        <v>2.85</v>
-      </c>
-      <c r="AH18">
-        <v>1.49</v>
-      </c>
-      <c r="AI18">
-        <v>2.44</v>
-      </c>
-      <c r="AJ18">
-        <v>1.89</v>
-      </c>
       <c r="AK18">
-        <v>1.85</v>
+        <v>2.73</v>
       </c>
       <c r="AL18">
-        <v>2.49</v>
+        <v>1.75</v>
       </c>
       <c r="AM18">
-        <v>1.47</v>
+        <v>1.97</v>
       </c>
       <c r="AN18">
-        <v>3.42</v>
+        <v>2.2</v>
       </c>
       <c r="AO18">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AP18">
-        <v>4.95</v>
+        <v>2.79</v>
       </c>
       <c r="AQ18">
-        <v>1.12</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="19" spans="1:43">
@@ -3101,13 +3101,13 @@
         <v>1.53</v>
       </c>
       <c r="J19">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K19">
-        <v>7.3</v>
+        <v>7.25</v>
       </c>
       <c r="L19">
-        <v>1.12</v>
+        <v>1.2</v>
       </c>
       <c r="M19">
         <v>1.22</v>
@@ -3128,10 +3128,10 @@
         <v>6</v>
       </c>
       <c r="S19">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="T19">
-        <v>2.56</v>
+        <v>2.9</v>
       </c>
       <c r="U19">
         <v>2.05</v>
@@ -3232,13 +3232,13 @@
         <v>4</v>
       </c>
       <c r="J20">
-        <v>2.36</v>
+        <v>2.23</v>
       </c>
       <c r="K20">
-        <v>3.13</v>
+        <v>2.73</v>
       </c>
       <c r="L20">
-        <v>3.24</v>
+        <v>3.15</v>
       </c>
       <c r="M20">
         <v>1.57</v>
@@ -3253,16 +3253,16 @@
         <v>7.2</v>
       </c>
       <c r="Q20">
-        <v>1.54</v>
+        <v>1.49</v>
       </c>
       <c r="R20">
-        <v>2.5</v>
+        <v>2.43</v>
       </c>
       <c r="S20">
-        <v>2.48</v>
+        <v>2.7</v>
       </c>
       <c r="T20">
-        <v>1.44</v>
+        <v>1.39</v>
       </c>
       <c r="U20">
         <v>2.1</v>
@@ -3363,13 +3363,13 @@
         <v>2.59</v>
       </c>
       <c r="J21">
-        <v>3.5</v>
+        <v>3.85</v>
       </c>
       <c r="K21">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="L21">
-        <v>1.95</v>
+        <v>1.83</v>
       </c>
       <c r="M21">
         <v>1.41</v>
@@ -3390,10 +3390,10 @@
         <v>3.3</v>
       </c>
       <c r="S21">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="T21">
-        <v>1.75</v>
+        <v>1.79</v>
       </c>
       <c r="U21">
         <v>1.72</v>
@@ -3494,13 +3494,13 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="K22">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="L22">
-        <v>3.5</v>
+        <v>3.85</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -3521,10 +3521,10 @@
         <v>0</v>
       </c>
       <c r="S22">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T22">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="U22">
         <v>0</v>

--- a/Jogos_do_Dia/2024-03-04_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2024-03-04_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -922,10 +922,10 @@
         <v>1.78</v>
       </c>
       <c r="Z2">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AA2">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AB2">
         <v>1.44</v>
@@ -1005,13 +1005,13 @@
         <v>7.5</v>
       </c>
       <c r="J3">
-        <v>1.43</v>
+        <v>1.5</v>
       </c>
       <c r="K3">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="L3">
-        <v>7.25</v>
+        <v>6.5</v>
       </c>
       <c r="M3">
         <v>1.4</v>
@@ -1032,10 +1032,10 @@
         <v>3.08</v>
       </c>
       <c r="S3">
-        <v>1.97</v>
+        <v>2.03</v>
       </c>
       <c r="T3">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="U3">
         <v>2.2</v>
@@ -1053,10 +1053,10 @@
         <v>2.71</v>
       </c>
       <c r="Z3">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AA3">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AB3">
         <v>1.38</v>
@@ -1136,13 +1136,13 @@
         <v>3.6</v>
       </c>
       <c r="J4">
-        <v>2.18</v>
+        <v>1.99</v>
       </c>
       <c r="K4">
-        <v>3.35</v>
+        <v>3.74</v>
       </c>
       <c r="L4">
-        <v>3.15</v>
+        <v>3.52</v>
       </c>
       <c r="M4">
         <v>1.36</v>
@@ -1163,10 +1163,10 @@
         <v>3.82</v>
       </c>
       <c r="S4">
-        <v>1.81</v>
+        <v>1.77</v>
       </c>
       <c r="T4">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="U4">
         <v>1.67</v>
@@ -1184,10 +1184,10 @@
         <v>1.7</v>
       </c>
       <c r="Z4">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AA4">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="AB4">
         <v>1.46</v>
@@ -1267,13 +1267,13 @@
         <v>4.5</v>
       </c>
       <c r="J5">
-        <v>1.73</v>
+        <v>1.6</v>
       </c>
       <c r="K5">
-        <v>3.5</v>
+        <v>3.92</v>
       </c>
       <c r="L5">
-        <v>4.6</v>
+        <v>5.4</v>
       </c>
       <c r="M5">
         <v>1.46</v>
@@ -1294,10 +1294,10 @@
         <v>2.95</v>
       </c>
       <c r="S5">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="T5">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="U5">
         <v>1.95</v>
@@ -1315,10 +1315,10 @@
         <v>1.95</v>
       </c>
       <c r="Z5">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AA5">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AB5">
         <v>1.6</v>
@@ -1398,13 +1398,13 @@
         <v>2.1</v>
       </c>
       <c r="J6">
-        <v>6.75</v>
+        <v>6.91</v>
       </c>
       <c r="K6">
-        <v>3.7</v>
+        <v>4.2</v>
       </c>
       <c r="L6">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="M6">
         <v>1.5</v>
@@ -1425,10 +1425,10 @@
         <v>2.65</v>
       </c>
       <c r="S6">
-        <v>2.3</v>
+        <v>2.09</v>
       </c>
       <c r="T6">
-        <v>1.55</v>
+        <v>1.63</v>
       </c>
       <c r="U6">
         <v>2.63</v>
@@ -1446,10 +1446,10 @@
         <v>1.04</v>
       </c>
       <c r="Z6">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AA6">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AB6">
         <v>1.46</v>
@@ -1577,10 +1577,10 @@
         <v>1.22</v>
       </c>
       <c r="Z7">
-        <v>0.3</v>
+        <v>0.55</v>
       </c>
       <c r="AA7">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AB7">
         <v>1.41</v>
@@ -1660,13 +1660,13 @@
         <v>4.5</v>
       </c>
       <c r="J8">
-        <v>1.85</v>
+        <v>1.81</v>
       </c>
       <c r="K8">
-        <v>3.7</v>
+        <v>3.66</v>
       </c>
       <c r="L8">
-        <v>4.1</v>
+        <v>4.38</v>
       </c>
       <c r="M8">
         <v>1.36</v>
@@ -1687,7 +1687,7 @@
         <v>3.61</v>
       </c>
       <c r="S8">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T8">
         <v>1.9</v>
@@ -1708,10 +1708,10 @@
         <v>2</v>
       </c>
       <c r="Z8">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AA8">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AB8">
         <v>1.44</v>
@@ -1791,13 +1791,13 @@
         <v>3</v>
       </c>
       <c r="J9">
-        <v>2.85</v>
+        <v>2.68</v>
       </c>
       <c r="K9">
-        <v>3.3</v>
+        <v>3.26</v>
       </c>
       <c r="L9">
-        <v>2.38</v>
+        <v>2.68</v>
       </c>
       <c r="M9">
         <v>1.36</v>
@@ -1818,10 +1818,10 @@
         <v>3.82</v>
       </c>
       <c r="S9">
-        <v>1.81</v>
+        <v>1.9</v>
       </c>
       <c r="T9">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="U9">
         <v>1.67</v>
@@ -1839,10 +1839,10 @@
         <v>1.45</v>
       </c>
       <c r="Z9">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AA9">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AB9">
         <v>1.44</v>
@@ -1922,13 +1922,13 @@
         <v>3.2</v>
       </c>
       <c r="J10">
-        <v>2.84</v>
+        <v>3</v>
       </c>
       <c r="K10">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="M10">
         <v>1.57</v>
@@ -1949,10 +1949,10 @@
         <v>2.5</v>
       </c>
       <c r="S10">
-        <v>2.43</v>
+        <v>2.38</v>
       </c>
       <c r="T10">
-        <v>1.52</v>
+        <v>1.47</v>
       </c>
       <c r="U10">
         <v>2.1</v>
@@ -2053,13 +2053,13 @@
         <v>3.4</v>
       </c>
       <c r="J11">
-        <v>2.1</v>
+        <v>2.43</v>
       </c>
       <c r="K11">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="L11">
-        <v>2.9</v>
+        <v>2.84</v>
       </c>
       <c r="M11">
         <v>1.45</v>
@@ -2080,10 +2080,10 @@
         <v>3.1</v>
       </c>
       <c r="S11">
-        <v>1.8</v>
+        <v>2.04</v>
       </c>
       <c r="T11">
-        <v>1.9</v>
+        <v>1.76</v>
       </c>
       <c r="U11">
         <v>1.8</v>
@@ -2190,7 +2190,7 @@
         <v>4.2</v>
       </c>
       <c r="L12">
-        <v>5.25</v>
+        <v>5.37</v>
       </c>
       <c r="M12">
         <v>1.3</v>
@@ -2211,10 +2211,10 @@
         <v>4.7</v>
       </c>
       <c r="S12">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="T12">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="U12">
         <v>1.7</v>
@@ -2315,13 +2315,13 @@
         <v>4.5</v>
       </c>
       <c r="J13">
-        <v>1.9</v>
+        <v>2.12</v>
       </c>
       <c r="K13">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="L13">
-        <v>3.9</v>
+        <v>3.47</v>
       </c>
       <c r="M13">
         <v>1.44</v>
@@ -2342,10 +2342,10 @@
         <v>3.1</v>
       </c>
       <c r="S13">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="T13">
-        <v>1.7</v>
+        <v>1.83</v>
       </c>
       <c r="U13">
         <v>1.95</v>
@@ -2708,13 +2708,13 @@
         <v>7</v>
       </c>
       <c r="J16">
-        <v>1.55</v>
+        <v>1.8</v>
       </c>
       <c r="K16">
-        <v>3.55</v>
+        <v>3.2</v>
       </c>
       <c r="L16">
-        <v>6.5</v>
+        <v>4.89</v>
       </c>
       <c r="M16">
         <v>1.53</v>
@@ -2729,16 +2729,16 @@
         <v>6.5</v>
       </c>
       <c r="Q16">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="R16">
-        <v>2.45</v>
+        <v>2.38</v>
       </c>
       <c r="S16">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="T16">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="U16">
         <v>2.5</v>
@@ -2839,13 +2839,13 @@
         <v>4.75</v>
       </c>
       <c r="J17">
-        <v>2.1</v>
+        <v>2.02</v>
       </c>
       <c r="K17">
         <v>3</v>
       </c>
       <c r="L17">
-        <v>3.65</v>
+        <v>3.81</v>
       </c>
       <c r="M17">
         <v>1.67</v>
@@ -2860,16 +2860,16 @@
         <v>5.7</v>
       </c>
       <c r="Q17">
-        <v>1.54</v>
+        <v>1.6</v>
       </c>
       <c r="R17">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="S17">
-        <v>2.65</v>
+        <v>2.94</v>
       </c>
       <c r="T17">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="U17">
         <v>2.38</v>
@@ -2970,13 +2970,13 @@
         <v>9.5</v>
       </c>
       <c r="J18">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="K18">
         <v>5.75</v>
       </c>
       <c r="L18">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M18">
         <v>1.33</v>
@@ -2997,10 +2997,10 @@
         <v>4</v>
       </c>
       <c r="S18">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="T18">
-        <v>2.05</v>
+        <v>1.99</v>
       </c>
       <c r="U18">
         <v>2.38</v>
@@ -3101,13 +3101,13 @@
         <v>1.53</v>
       </c>
       <c r="J19">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="K19">
-        <v>7.25</v>
+        <v>5.9</v>
       </c>
       <c r="L19">
-        <v>1.2</v>
+        <v>1.23</v>
       </c>
       <c r="M19">
         <v>1.22</v>
@@ -3131,7 +3131,7 @@
         <v>1.4</v>
       </c>
       <c r="T19">
-        <v>2.9</v>
+        <v>2.82</v>
       </c>
       <c r="U19">
         <v>2.05</v>
@@ -3232,13 +3232,13 @@
         <v>4</v>
       </c>
       <c r="J20">
-        <v>2.23</v>
+        <v>2.36</v>
       </c>
       <c r="K20">
-        <v>2.73</v>
+        <v>3.13</v>
       </c>
       <c r="L20">
-        <v>3.15</v>
+        <v>3.24</v>
       </c>
       <c r="M20">
         <v>1.57</v>
@@ -3253,16 +3253,16 @@
         <v>7.2</v>
       </c>
       <c r="Q20">
-        <v>1.49</v>
+        <v>1.54</v>
       </c>
       <c r="R20">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="S20">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="T20">
-        <v>1.39</v>
+        <v>1.53</v>
       </c>
       <c r="U20">
         <v>2.1</v>
@@ -3363,13 +3363,13 @@
         <v>2.59</v>
       </c>
       <c r="J21">
-        <v>3.85</v>
+        <v>3.3</v>
       </c>
       <c r="K21">
-        <v>3.4</v>
+        <v>3.15</v>
       </c>
       <c r="L21">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="M21">
         <v>1.41</v>
@@ -3390,10 +3390,10 @@
         <v>3.3</v>
       </c>
       <c r="S21">
-        <v>1.97</v>
+        <v>2.04</v>
       </c>
       <c r="T21">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="U21">
         <v>1.72</v>
@@ -3494,13 +3494,13 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>2</v>
+        <v>2.12</v>
       </c>
       <c r="K22">
-        <v>3.35</v>
+        <v>3.48</v>
       </c>
       <c r="L22">
-        <v>3.85</v>
+        <v>3.38</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -3515,16 +3515,16 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="R22">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S22">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="T22">
-        <v>1.75</v>
+        <v>1.84</v>
       </c>
       <c r="U22">
         <v>0</v>
